--- a/data/trans_orig/P16A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C8A60AD-8A43-49C8-A821-BE0B99E7E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D5ADA0-B06E-4051-AB26-E0E7F0A27D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ED0EC29C-0208-4465-9F3F-7A8C9A329E95}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0E2AC48-8417-4331-B923-2FAF3ECC34CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
   <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,7%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>99,43%</t>
   </si>
   <si>
-    <t>98,3%</t>
+    <t>98,48%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -116,19 +116,19 @@
     <t>96,33%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,25 +140,25 @@
     <t>2,88%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>4,76%</t>
@@ -167,19 +167,19 @@
     <t>97,12%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>96,38%</t>
@@ -188,7 +188,7 @@
     <t>95,24%</t>
   </si>
   <si>
-    <t>97,29%</t>
+    <t>97,33%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -200,1345 +200,1357 @@
     <t>1,77%</t>
   </si>
   <si>
-    <t>4,39%</t>
+    <t>4,44%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>5,87%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>89,94%</t>
   </si>
   <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>87,51%</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FB45BE-ACEE-4D84-A688-00BE78A04137}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7527E4CC-7EF5-4FB4-8D97-D76B68756B73}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3082,7 +3094,7 @@
         <v>5981</v>
       </c>
       <c r="N23" s="7">
-        <v>6117908</v>
+        <v>6117909</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>139</v>
@@ -3133,7 +3145,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3169,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC787CB9-2E44-44AD-BC48-ED77CDE8B3CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B57378B-41AC-40ED-AF1B-4C223E88F580}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3296,10 +3308,10 @@
         <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3308,13 +3320,13 @@
         <v>12476</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -3350,7 +3362,7 @@
         <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>409</v>
@@ -3359,10 +3371,10 @@
         <v>417754</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>156</v>
@@ -3466,10 +3478,10 @@
         <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -3478,13 +3490,13 @@
         <v>59975</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3511,13 @@
         <v>660214</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -3514,13 +3526,13 @@
         <v>577153</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>1185</v>
@@ -3529,13 +3541,13 @@
         <v>1237367</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3615,13 @@
         <v>38767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -3618,13 +3630,13 @@
         <v>84020</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -3633,13 +3645,13 @@
         <v>122786</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3666,13 @@
         <v>643096</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>587</v>
@@ -3669,13 +3681,13 @@
         <v>626830</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>1204</v>
@@ -3684,13 +3696,13 @@
         <v>1269926</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3770,13 @@
         <v>40795</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3773,13 +3785,13 @@
         <v>104251</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3788,13 +3800,13 @@
         <v>145046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3821,13 @@
         <v>573822</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>445</v>
@@ -3824,13 +3836,13 @@
         <v>511948</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>956</v>
@@ -3839,13 +3851,13 @@
         <v>1085770</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3925,13 @@
         <v>45096</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -3928,13 +3940,13 @@
         <v>104774</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -3943,13 +3955,13 @@
         <v>149870</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3976,13 @@
         <v>384333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>307</v>
@@ -3979,13 +3991,13 @@
         <v>343026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>658</v>
@@ -3994,13 +4006,13 @@
         <v>727359</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4080,13 @@
         <v>69771</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>202</v>
@@ -4083,13 +4095,13 @@
         <v>216204</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -4098,13 +4110,13 @@
         <v>285976</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4131,13 @@
         <v>489866</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>492</v>
@@ -4134,13 +4146,13 @@
         <v>526771</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>937</v>
@@ -4149,13 +4161,13 @@
         <v>1016636</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4235,13 @@
         <v>227680</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H22" s="7">
         <v>517</v>
@@ -4238,13 +4250,13 @@
         <v>554826</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>719</v>
@@ -4253,13 +4265,13 @@
         <v>782506</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4286,13 @@
         <v>3199099</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>2781</v>
@@ -4289,13 +4301,13 @@
         <v>3003483</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>5788</v>
@@ -4304,13 +4316,13 @@
         <v>6202582</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,7 +4400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A47F7D3-013B-40C1-9BB1-740C3AE4EFEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365D1AAF-8D08-4050-812D-8C9B2FD89FCE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4405,7 +4417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +4524,13 @@
         <v>4494</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4527,13 +4539,13 @@
         <v>12076</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4542,13 +4554,13 @@
         <v>16570</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4575,13 @@
         <v>414969</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>392</v>
@@ -4578,13 +4590,13 @@
         <v>383679</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>781</v>
@@ -4593,13 +4605,13 @@
         <v>798648</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4679,13 @@
         <v>13882</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4682,13 +4694,13 @@
         <v>20196</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -4697,13 +4709,13 @@
         <v>34079</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4730,13 @@
         <v>576614</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
         <v>558</v>
@@ -4733,13 +4745,13 @@
         <v>543348</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>1111</v>
@@ -4748,13 +4760,13 @@
         <v>1119961</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4834,13 @@
         <v>34459</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>71</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -4837,13 +4849,13 @@
         <v>59870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -4852,13 +4864,13 @@
         <v>94329</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4885,13 @@
         <v>634638</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="H11" s="7">
         <v>603</v>
@@ -4888,13 +4900,13 @@
         <v>601516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M11" s="7">
         <v>1209</v>
@@ -4903,13 +4915,13 @@
         <v>1236154</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4989,13 @@
         <v>44931</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -4992,13 +5004,13 @@
         <v>99114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -5007,13 +5019,13 @@
         <v>144045</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5040,13 @@
         <v>601117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H14" s="7">
         <v>511</v>
@@ -5043,28 +5055,28 @@
         <v>549963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M14" s="7">
         <v>1051</v>
       </c>
       <c r="N14" s="7">
-        <v>1151080</v>
+        <v>1151081</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,7 +5118,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5132,13 +5144,13 @@
         <v>42714</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -5147,13 +5159,13 @@
         <v>130425</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M16" s="7">
         <v>153</v>
@@ -5162,13 +5174,13 @@
         <v>173139</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5195,13 @@
         <v>435204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>340</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>317</v>
@@ -5198,13 +5210,13 @@
         <v>366424</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M17" s="7">
         <v>704</v>
@@ -5213,13 +5225,13 @@
         <v>801628</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5299,13 @@
         <v>72218</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H19" s="7">
         <v>184</v>
@@ -5302,13 +5314,13 @@
         <v>216650</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -5317,13 +5329,13 @@
         <v>288867</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>356</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5350,13 @@
         <v>519110</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H20" s="7">
         <v>471</v>
@@ -5353,13 +5365,13 @@
         <v>561281</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>1021</v>
@@ -5368,13 +5380,13 @@
         <v>1080392</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5454,13 @@
         <v>212698</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H22" s="7">
         <v>486</v>
@@ -5457,13 +5469,13 @@
         <v>538331</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M22" s="7">
         <v>692</v>
@@ -5472,13 +5484,13 @@
         <v>751029</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5505,13 @@
         <v>3181652</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H23" s="7">
         <v>2852</v>
@@ -5508,13 +5520,13 @@
         <v>3006211</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M23" s="7">
         <v>5877</v>
@@ -5523,13 +5535,13 @@
         <v>6187863</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,7 +5619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A12CB53-CE50-4E5F-9968-0F06D772EB15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C107D131-A85A-4BDF-A862-EC800CDFDAF4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5624,7 +5636,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5731,13 +5743,13 @@
         <v>4845</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>382</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5749,10 +5761,10 @@
         <v>40</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5761,13 +5773,13 @@
         <v>21743</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>390</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5794,13 @@
         <v>372834</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>388</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H5" s="7">
         <v>200</v>
@@ -5800,10 +5812,10 @@
         <v>48</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>278</v>
+        <v>27</v>
       </c>
       <c r="M5" s="7">
         <v>369</v>
@@ -5812,13 +5824,13 @@
         <v>710893</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5898,13 @@
         <v>8533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5901,13 +5913,13 @@
         <v>23702</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -5916,13 +5928,13 @@
         <v>32235</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5949,13 @@
         <v>419863</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -5952,13 +5964,13 @@
         <v>475513</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="M8" s="7">
         <v>736</v>
@@ -5967,13 +5979,13 @@
         <v>895376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6053,13 @@
         <v>31915</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -6056,13 +6068,13 @@
         <v>56320</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -6071,13 +6083,13 @@
         <v>88235</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>419</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6104,13 @@
         <v>525337</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H11" s="7">
         <v>768</v>
@@ -6107,13 +6119,13 @@
         <v>554127</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="M11" s="7">
         <v>1287</v>
@@ -6122,13 +6134,13 @@
         <v>1079464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>426</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6208,13 @@
         <v>63937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H13" s="7">
         <v>165</v>
@@ -6211,13 +6223,13 @@
         <v>115915</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M13" s="7">
         <v>223</v>
@@ -6226,13 +6238,13 @@
         <v>179852</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6259,13 @@
         <v>660053</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>976</v>
@@ -6262,28 +6274,28 @@
         <v>631346</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>1583</v>
       </c>
       <c r="N14" s="7">
-        <v>1291400</v>
+        <v>1291399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,7 +6337,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6351,13 +6363,13 @@
         <v>72597</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>249</v>
@@ -6366,13 +6378,13 @@
         <v>150613</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>328</v>
@@ -6381,13 +6393,13 @@
         <v>223210</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6414,13 @@
         <v>527560</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>753</v>
@@ -6417,13 +6429,13 @@
         <v>446450</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="M17" s="7">
         <v>1337</v>
@@ -6432,13 +6444,13 @@
         <v>974010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,16 +6515,16 @@
         <v>183</v>
       </c>
       <c r="D19" s="7">
-        <v>118583</v>
+        <v>118584</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="H19" s="7">
         <v>556</v>
@@ -6521,13 +6533,13 @@
         <v>302966</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M19" s="7">
         <v>739</v>
@@ -6536,13 +6548,13 @@
         <v>421549</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6569,13 @@
         <v>579171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>1152</v>
@@ -6572,13 +6584,13 @@
         <v>723671</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>1997</v>
@@ -6587,13 +6599,13 @@
         <v>1302843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,7 +6617,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6661,13 +6673,13 @@
         <v>300411</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="H22" s="7">
         <v>1076</v>
@@ -6676,13 +6688,13 @@
         <v>666414</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="M22" s="7">
         <v>1434</v>
@@ -6691,13 +6703,13 @@
         <v>966825</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6724,13 @@
         <v>3084817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="H23" s="7">
         <v>4291</v>
@@ -6727,28 +6739,28 @@
         <v>3169167</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="M23" s="7">
         <v>7309</v>
       </c>
       <c r="N23" s="7">
-        <v>6253984</v>
+        <v>6253983</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,7 +6802,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D5ADA0-B06E-4051-AB26-E0E7F0A27D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1766B52-54CB-4E11-92A5-B6B9C7A9D4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0E2AC48-8417-4331-B923-2FAF3ECC34CC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{79E5D7BB-01A7-4578-9287-27B95F162917}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -80,1260 +80,1266 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>90,86%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
     <t>93,76%</t>
   </si>
   <si>
@@ -1448,9 +1454,6 @@
     <t>17,0%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
     <t>19,45%</t>
   </si>
   <si>
@@ -1476,9 +1479,6 @@
   </si>
   <si>
     <t>80,55%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
   </si>
   <si>
     <t>70,49%</t>
@@ -1962,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7527E4CC-7EF5-4FB4-8D97-D76B68756B73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB6723F-8220-4C59-AE03-F4FBD35A25D2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2259,10 +2259,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -2271,13 +2271,13 @@
         <v>49216</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2292,13 @@
         <v>714275</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -2307,13 +2307,13 @@
         <v>597492</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>1246</v>
@@ -2322,13 +2322,13 @@
         <v>1311766</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,7 +2384,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2396,13 +2396,13 @@
         <v>18107</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -2411,13 +2411,13 @@
         <v>53740</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -2426,13 +2426,13 @@
         <v>71847</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2447,13 @@
         <v>620561</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>606</v>
@@ -2462,13 +2462,13 @@
         <v>636004</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1201</v>
@@ -2477,13 +2477,13 @@
         <v>1256565</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,7 +2539,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2551,13 +2551,13 @@
         <v>28389</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -2566,13 +2566,13 @@
         <v>69938</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>95</v>
@@ -2581,13 +2581,13 @@
         <v>98327</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2602,13 @@
         <v>490758</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>433</v>
@@ -2617,13 +2617,13 @@
         <v>445704</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>891</v>
@@ -2632,13 +2632,13 @@
         <v>936462</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,7 +2694,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2706,13 +2706,13 @@
         <v>30127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -2721,13 +2721,13 @@
         <v>75472</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -2736,13 +2736,13 @@
         <v>105599</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2757,13 @@
         <v>356583</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>322</v>
@@ -2772,13 +2772,13 @@
         <v>328514</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>684</v>
@@ -2787,13 +2787,13 @@
         <v>685097</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2849,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2861,13 +2861,13 @@
         <v>60381</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>128</v>
@@ -2876,13 +2876,13 @@
         <v>132485</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>192</v>
@@ -2891,13 +2891,13 @@
         <v>192866</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2912,13 @@
         <v>442085</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>533</v>
@@ -2927,13 +2927,13 @@
         <v>544357</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>992</v>
@@ -2942,13 +2942,13 @@
         <v>986442</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3016,13 @@
         <v>161025</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>367</v>
@@ -3031,13 +3031,13 @@
         <v>376807</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>530</v>
@@ -3046,13 +3046,13 @@
         <v>537832</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,16 +3064,16 @@
         <v>3051</v>
       </c>
       <c r="D23" s="7">
-        <v>3115519</v>
+        <v>3115518</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>2930</v>
@@ -3082,13 +3082,13 @@
         <v>3002391</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>5981</v>
@@ -3097,13 +3097,13 @@
         <v>6117909</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,7 +3115,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B57378B-41AC-40ED-AF1B-4C223E88F580}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EDB294-4446-4AEA-ACE6-479E1A33D83E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3198,7 +3198,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3305,13 +3305,13 @@
         <v>6378</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3320,13 +3320,13 @@
         <v>12476</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -3335,13 +3335,13 @@
         <v>18854</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3356,13 @@
         <v>447768</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>409</v>
@@ -3478,10 +3478,10 @@
         <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -3490,13 +3490,13 @@
         <v>59975</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3511,13 @@
         <v>660214</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -3526,13 +3526,13 @@
         <v>577153</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="M8" s="7">
         <v>1185</v>
@@ -3541,13 +3541,13 @@
         <v>1237367</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,7 +3603,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3615,13 +3615,13 @@
         <v>38767</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -3630,13 +3630,13 @@
         <v>84020</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -3645,13 +3645,13 @@
         <v>122786</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3666,13 @@
         <v>643096</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>587</v>
@@ -3681,13 +3681,13 @@
         <v>626830</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>1204</v>
@@ -3696,13 +3696,13 @@
         <v>1269926</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,7 +3758,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3770,13 +3770,13 @@
         <v>40795</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3785,13 +3785,13 @@
         <v>104251</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3800,13 +3800,13 @@
         <v>145046</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3821,13 @@
         <v>573822</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>445</v>
@@ -3836,13 +3836,13 @@
         <v>511948</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>956</v>
@@ -3851,13 +3851,13 @@
         <v>1085770</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,7 +3913,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3925,13 +3925,13 @@
         <v>45096</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -3940,13 +3940,13 @@
         <v>104774</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -3955,13 +3955,13 @@
         <v>149870</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3976,13 @@
         <v>384333</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>307</v>
@@ -3991,13 +3991,13 @@
         <v>343026</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>658</v>
@@ -4006,13 +4006,13 @@
         <v>727359</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,7 +4068,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4080,13 +4080,13 @@
         <v>69771</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>202</v>
@@ -4095,13 +4095,13 @@
         <v>216204</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -4110,13 +4110,13 @@
         <v>285976</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4131,13 @@
         <v>489866</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>492</v>
@@ -4146,13 +4146,13 @@
         <v>526771</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>937</v>
@@ -4161,13 +4161,13 @@
         <v>1016636</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4235,13 @@
         <v>227680</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H22" s="7">
         <v>517</v>
@@ -4250,13 +4250,13 @@
         <v>554826</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>719</v>
@@ -4265,13 +4265,13 @@
         <v>782506</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4286,13 @@
         <v>3199099</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>2781</v>
@@ -4301,13 +4301,13 @@
         <v>3003483</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>5788</v>
@@ -4316,13 +4316,13 @@
         <v>6202582</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,7 +4378,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4400,7 +4400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365D1AAF-8D08-4050-812D-8C9B2FD89FCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6808CAE5-C26F-419E-97F9-D0473EB7AB59}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4417,7 +4417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4524,13 +4524,13 @@
         <v>4494</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4539,13 +4539,13 @@
         <v>12076</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4554,13 +4554,13 @@
         <v>16570</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4575,13 @@
         <v>414969</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H5" s="7">
         <v>392</v>
@@ -4590,13 +4590,13 @@
         <v>383679</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>781</v>
@@ -4605,13 +4605,13 @@
         <v>798648</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4679,13 @@
         <v>13882</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4694,13 +4694,13 @@
         <v>20196</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -4709,13 +4709,13 @@
         <v>34079</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4730,13 @@
         <v>576614</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H8" s="7">
         <v>558</v>
@@ -4745,13 +4745,13 @@
         <v>543348</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>1111</v>
@@ -4760,13 +4760,13 @@
         <v>1119961</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,7 +4822,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4834,13 +4834,13 @@
         <v>34459</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -4849,13 +4849,13 @@
         <v>59870</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -4864,10 +4864,10 @@
         <v>94329</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>307</v>
@@ -4891,7 +4891,7 @@
         <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>603</v>
@@ -4900,13 +4900,13 @@
         <v>601516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>1209</v>
@@ -4915,13 +4915,13 @@
         <v>1236154</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,7 +4977,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4989,13 +4989,13 @@
         <v>44931</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -5004,13 +5004,13 @@
         <v>99114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -5019,13 +5019,13 @@
         <v>144045</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5040,13 @@
         <v>601117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>511</v>
@@ -5055,28 +5055,28 @@
         <v>549963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>1051</v>
       </c>
       <c r="N14" s="7">
-        <v>1151081</v>
+        <v>1151080</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,7 +5118,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5144,13 +5144,13 @@
         <v>42714</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>334</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -5159,13 +5159,13 @@
         <v>130425</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
         <v>153</v>
@@ -5174,13 +5174,13 @@
         <v>173139</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5195,13 @@
         <v>435204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>342</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="H17" s="7">
         <v>317</v>
@@ -5210,13 +5210,13 @@
         <v>366424</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>704</v>
@@ -5225,13 +5225,13 @@
         <v>801628</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,7 +5287,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5299,13 +5299,13 @@
         <v>72218</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>184</v>
@@ -5314,13 +5314,13 @@
         <v>216650</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -5329,13 +5329,13 @@
         <v>288867</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5350,13 @@
         <v>519110</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H20" s="7">
         <v>471</v>
@@ -5365,13 +5365,13 @@
         <v>561281</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M20" s="7">
         <v>1021</v>
@@ -5380,13 +5380,13 @@
         <v>1080392</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5454,13 @@
         <v>212698</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>368</v>
+        <v>163</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H22" s="7">
         <v>486</v>
@@ -5469,13 +5469,13 @@
         <v>538331</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M22" s="7">
         <v>692</v>
@@ -5484,10 +5484,10 @@
         <v>751029</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>374</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>375</v>
@@ -5511,7 +5511,7 @@
         <v>377</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>378</v>
+        <v>171</v>
       </c>
       <c r="H23" s="7">
         <v>2852</v>
@@ -5520,13 +5520,13 @@
         <v>3006211</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M23" s="7">
         <v>5877</v>
@@ -5535,13 +5535,13 @@
         <v>6187863</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>384</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,7 +5597,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5619,7 +5619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C107D131-A85A-4BDF-A862-EC800CDFDAF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481D5EA0-72EE-4505-BD43-720D2F6B9CAA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5636,7 +5636,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5743,13 +5743,13 @@
         <v>4845</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>384</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5758,13 +5758,13 @@
         <v>16898</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>40</v>
+        <v>387</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>388</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5773,13 +5773,13 @@
         <v>21743</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,7 +5794,7 @@
         <v>372834</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>391</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>392</v>
@@ -5809,10 +5809,10 @@
         <v>338059</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>48</v>
+        <v>394</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>394</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>27</v>
@@ -6041,7 +6041,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6089,7 +6089,7 @@
         <v>423</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6104,13 @@
         <v>525337</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H11" s="7">
         <v>768</v>
@@ -6119,13 +6119,13 @@
         <v>554127</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M11" s="7">
         <v>1287</v>
@@ -6134,13 +6134,13 @@
         <v>1079464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,7 +6196,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6208,13 +6208,13 @@
         <v>63937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>165</v>
@@ -6223,13 +6223,13 @@
         <v>115915</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>223</v>
@@ -6238,13 +6238,13 @@
         <v>179852</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6259,13 @@
         <v>660053</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>976</v>
@@ -6274,13 +6274,13 @@
         <v>631346</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>1583</v>
@@ -6289,13 +6289,13 @@
         <v>1291399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,7 +6351,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6363,13 +6363,13 @@
         <v>72597</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>249</v>
@@ -6378,13 +6378,13 @@
         <v>150613</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M16" s="7">
         <v>328</v>
@@ -6393,13 +6393,13 @@
         <v>223210</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6414,13 @@
         <v>527560</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H17" s="7">
         <v>753</v>
@@ -6429,13 +6429,13 @@
         <v>446450</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M17" s="7">
         <v>1337</v>
@@ -6444,13 +6444,13 @@
         <v>974010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,7 +6506,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6518,13 +6518,13 @@
         <v>118584</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>469</v>
+        <v>219</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>556</v>
@@ -6533,13 +6533,13 @@
         <v>302966</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>739</v>
@@ -6548,13 +6548,13 @@
         <v>421549</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6569,13 @@
         <v>579171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>229</v>
       </c>
       <c r="H20" s="7">
         <v>1152</v>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1766B52-54CB-4E11-92A5-B6B9C7A9D4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09814E7B-CF0D-4945-AC8A-2336F5B2FD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{79E5D7BB-01A7-4578-9287-27B95F162917}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4DDE78DD-8AA8-47C9-9744-3196E756B995}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
   <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -86,19 +86,19 @@
     <t>3,67%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -116,19 +116,19 @@
     <t>96,33%</t>
   </si>
   <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,1414 +143,1402 @@
     <t>1,85%</t>
   </si>
   <si>
-    <t>4,19%</t>
+    <t>4,25%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
   </si>
   <si>
     <t>19,51%</t>
   </si>
   <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
   </si>
   <si>
     <t>80,49%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
   </si>
   <si>
     <t>17,37%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
   </si>
   <si>
     <t>13,39%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>82,63%</t>
   </si>
   <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
   </si>
   <si>
     <t>86,61%</t>
   </si>
   <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB6723F-8220-4C59-AE03-F4FBD35A25D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18154D54-72C8-41C5-993F-7EA8AC017C2C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2259,10 +2247,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -2271,13 +2259,13 @@
         <v>49216</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2280,13 @@
         <v>714275</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -2307,13 +2295,13 @@
         <v>597492</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1246</v>
@@ -2322,13 +2310,13 @@
         <v>1311766</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,7 +2372,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2396,13 +2384,13 @@
         <v>18107</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -2411,13 +2399,13 @@
         <v>53740</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>70</v>
@@ -2426,13 +2414,13 @@
         <v>71847</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2435,13 @@
         <v>620561</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>606</v>
@@ -2462,13 +2450,13 @@
         <v>636004</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1201</v>
@@ -2477,13 +2465,13 @@
         <v>1256565</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,7 +2527,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2551,13 +2539,13 @@
         <v>28389</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -2566,13 +2554,13 @@
         <v>69938</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>95</v>
@@ -2581,13 +2569,13 @@
         <v>98327</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2590,13 @@
         <v>490758</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>433</v>
@@ -2617,13 +2605,13 @@
         <v>445704</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>891</v>
@@ -2632,13 +2620,13 @@
         <v>936462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,7 +2682,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2706,13 +2694,13 @@
         <v>30127</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -2721,13 +2709,13 @@
         <v>75472</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -2736,13 +2724,13 @@
         <v>105599</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2745,13 @@
         <v>356583</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>322</v>
@@ -2772,13 +2760,13 @@
         <v>328514</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>684</v>
@@ -2787,13 +2775,13 @@
         <v>685097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2837,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2861,13 +2849,13 @@
         <v>60381</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>128</v>
@@ -2876,13 +2864,13 @@
         <v>132485</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>192</v>
@@ -2891,13 +2879,13 @@
         <v>192866</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2900,13 @@
         <v>442085</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>533</v>
@@ -2927,13 +2915,13 @@
         <v>544357</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>992</v>
@@ -2942,13 +2930,13 @@
         <v>986442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3004,13 @@
         <v>161025</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>367</v>
@@ -3031,13 +3019,13 @@
         <v>376807</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>530</v>
@@ -3046,13 +3034,13 @@
         <v>537832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,16 +3052,16 @@
         <v>3051</v>
       </c>
       <c r="D23" s="7">
-        <v>3115518</v>
+        <v>3115519</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>2930</v>
@@ -3082,28 +3070,28 @@
         <v>3002391</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>5981</v>
       </c>
       <c r="N23" s="7">
-        <v>6117909</v>
+        <v>6117908</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,7 +3103,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3145,7 +3133,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3159,7 +3147,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EDB294-4446-4AEA-ACE6-479E1A33D83E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137B13E2-A974-4FF1-A7AD-2C0E8B077AD3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3198,7 +3186,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3305,13 +3293,13 @@
         <v>6378</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3320,13 +3308,13 @@
         <v>12476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -3335,13 +3323,13 @@
         <v>18854</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3344,13 @@
         <v>447768</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>409</v>
@@ -3371,10 +3359,10 @@
         <v>417754</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>156</v>
@@ -3478,7 +3466,7 @@
         <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>164</v>
@@ -3532,7 +3520,7 @@
         <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>1185</v>
@@ -3603,7 +3591,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3758,7 +3746,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3913,7 +3901,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4068,7 +4056,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4268,10 +4256,10 @@
         <v>253</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,10 +4277,10 @@
         <v>203</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>2781</v>
@@ -4301,13 +4289,13 @@
         <v>3003483</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>5788</v>
@@ -4316,13 +4304,13 @@
         <v>6202582</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,7 +4366,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4400,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6808CAE5-C26F-419E-97F9-D0473EB7AB59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B6E3F3-8A83-47AA-9D85-1E6704ED9CEB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4417,7 +4405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4524,13 +4512,13 @@
         <v>4494</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4539,13 +4527,13 @@
         <v>12076</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4554,13 +4542,13 @@
         <v>16570</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4563,13 @@
         <v>414969</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>392</v>
@@ -4590,13 +4578,13 @@
         <v>383679</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>781</v>
@@ -4605,13 +4593,13 @@
         <v>798648</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4667,13 @@
         <v>13882</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4694,13 +4682,13 @@
         <v>20196</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -4709,13 +4697,13 @@
         <v>34079</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4718,13 @@
         <v>576614</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>293</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>558</v>
@@ -4745,13 +4733,13 @@
         <v>543348</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M8" s="7">
         <v>1111</v>
@@ -4760,13 +4748,13 @@
         <v>1119961</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,7 +4810,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4834,13 +4822,13 @@
         <v>34459</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -4849,13 +4837,13 @@
         <v>59870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -4864,13 +4852,13 @@
         <v>94329</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4873,13 @@
         <v>634638</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H11" s="7">
         <v>603</v>
@@ -4900,13 +4888,13 @@
         <v>601516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M11" s="7">
         <v>1209</v>
@@ -4915,13 +4903,13 @@
         <v>1236154</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,7 +4965,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4989,13 +4977,13 @@
         <v>44931</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -5004,13 +4992,13 @@
         <v>99114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -5019,13 +5007,13 @@
         <v>144045</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5028,13 @@
         <v>601117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H14" s="7">
         <v>511</v>
@@ -5055,13 +5043,13 @@
         <v>549963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="M14" s="7">
         <v>1051</v>
@@ -5070,13 +5058,13 @@
         <v>1151080</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,7 +5120,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5144,13 +5132,13 @@
         <v>42714</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>331</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -5159,13 +5147,13 @@
         <v>130425</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M16" s="7">
         <v>153</v>
@@ -5174,13 +5162,13 @@
         <v>173139</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5183,13 @@
         <v>435204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
         <v>317</v>
@@ -5210,13 +5198,13 @@
         <v>366424</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>704</v>
@@ -5225,13 +5213,13 @@
         <v>801628</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,7 +5275,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5299,13 +5287,13 @@
         <v>72218</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H19" s="7">
         <v>184</v>
@@ -5314,13 +5302,13 @@
         <v>216650</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -5329,13 +5317,13 @@
         <v>288867</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5338,13 @@
         <v>519110</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H20" s="7">
         <v>471</v>
@@ -5365,13 +5353,13 @@
         <v>561281</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M20" s="7">
         <v>1021</v>
@@ -5380,13 +5368,13 @@
         <v>1080392</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5442,13 @@
         <v>212698</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>163</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H22" s="7">
         <v>486</v>
@@ -5469,13 +5457,13 @@
         <v>538331</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
         <v>692</v>
@@ -5484,13 +5472,13 @@
         <v>751029</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>54</v>
+        <v>370</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5493,13 @@
         <v>3181652</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>171</v>
+        <v>374</v>
       </c>
       <c r="H23" s="7">
         <v>2852</v>
@@ -5520,13 +5508,13 @@
         <v>3006211</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M23" s="7">
         <v>5877</v>
@@ -5535,13 +5523,13 @@
         <v>6187863</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>62</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,7 +5585,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5619,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481D5EA0-72EE-4505-BD43-720D2F6B9CAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD4F8BF-78F1-4CA4-8206-1791CD5256C1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5636,7 +5624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5743,13 +5731,13 @@
         <v>4845</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5758,13 +5746,13 @@
         <v>16898</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>387</v>
+        <v>40</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>385</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -5773,13 +5761,13 @@
         <v>21743</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>389</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5782,13 @@
         <v>372834</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H5" s="7">
         <v>200</v>
@@ -5809,13 +5797,13 @@
         <v>338059</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>394</v>
+        <v>48</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>391</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>27</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>369</v>
@@ -5824,13 +5812,13 @@
         <v>710893</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>397</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5886,13 @@
         <v>8533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5913,13 +5901,13 @@
         <v>23702</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -5928,13 +5916,13 @@
         <v>32235</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5937,13 @@
         <v>419863</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -5964,13 +5952,13 @@
         <v>475513</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M8" s="7">
         <v>736</v>
@@ -5979,13 +5967,13 @@
         <v>895376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,7 +6029,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6053,13 +6041,13 @@
         <v>31915</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -6068,13 +6056,13 @@
         <v>56320</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -6083,13 +6071,13 @@
         <v>88235</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6092,13 @@
         <v>525337</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H11" s="7">
         <v>768</v>
@@ -6119,13 +6107,13 @@
         <v>554127</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="M11" s="7">
         <v>1287</v>
@@ -6134,13 +6122,13 @@
         <v>1079464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,7 +6184,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6208,13 +6196,13 @@
         <v>63937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H13" s="7">
         <v>165</v>
@@ -6223,13 +6211,13 @@
         <v>115915</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M13" s="7">
         <v>223</v>
@@ -6238,13 +6226,13 @@
         <v>179852</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6247,13 @@
         <v>660053</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H14" s="7">
         <v>976</v>
@@ -6274,28 +6262,28 @@
         <v>631346</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="M14" s="7">
         <v>1583</v>
       </c>
       <c r="N14" s="7">
-        <v>1291399</v>
+        <v>1291400</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,7 +6325,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6351,7 +6339,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6363,13 +6351,13 @@
         <v>72597</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H16" s="7">
         <v>249</v>
@@ -6378,13 +6366,13 @@
         <v>150613</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M16" s="7">
         <v>328</v>
@@ -6393,13 +6381,13 @@
         <v>223210</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6402,13 @@
         <v>527560</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H17" s="7">
         <v>753</v>
@@ -6429,13 +6417,13 @@
         <v>446450</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>1337</v>
@@ -6444,13 +6432,13 @@
         <v>974010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,7 +6494,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6515,16 +6503,16 @@
         <v>183</v>
       </c>
       <c r="D19" s="7">
-        <v>118584</v>
+        <v>118583</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>219</v>
+        <v>465</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H19" s="7">
         <v>556</v>
@@ -6533,13 +6521,13 @@
         <v>302966</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="M19" s="7">
         <v>739</v>
@@ -6548,13 +6536,13 @@
         <v>421549</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6557,13 @@
         <v>579171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>229</v>
+        <v>475</v>
       </c>
       <c r="H20" s="7">
         <v>1152</v>
@@ -6584,13 +6572,13 @@
         <v>723671</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M20" s="7">
         <v>1997</v>
@@ -6599,13 +6587,13 @@
         <v>1302843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,7 +6605,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6673,13 +6661,13 @@
         <v>300411</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
         <v>1076</v>
@@ -6688,13 +6676,13 @@
         <v>666414</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="M22" s="7">
         <v>1434</v>
@@ -6703,13 +6691,13 @@
         <v>966825</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6712,13 @@
         <v>3084817</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>4291</v>
@@ -6739,28 +6727,28 @@
         <v>3169167</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
         <v>7309</v>
       </c>
       <c r="N23" s="7">
-        <v>6253983</v>
+        <v>6253984</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,7 +6790,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6816,7 +6804,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09814E7B-CF0D-4945-AC8A-2336F5B2FD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A959AA63-5DB5-48CC-BC85-E2CC393CCD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4DDE78DD-8AA8-47C9-9744-3196E756B995}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0605E0AE-B0B5-4F31-A93B-E4487B3D0411}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="565">
   <si>
     <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>2,88%</t>
@@ -191,7 +191,7 @@
     <t>97,29%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,84%</t>
@@ -248,7 +248,7 @@
     <t>95,74%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>5,47%</t>
@@ -305,7 +305,7 @@
     <t>92,13%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>5,43%</t>
@@ -356,1189 +356,1384 @@
     <t>88,89%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>12,02%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>90,46%</t>
   </si>
   <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido algún psicofármaco en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
   </si>
 </sst>
 </file>
@@ -1950,8 +2145,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18154D54-72C8-41C5-993F-7EA8AC017C2C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B15A93D-6CE8-4006-AC72-3E54E1B79C44}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2843,10 +3038,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7">
-        <v>60381</v>
+        <v>28898</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2858,10 +3053,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="I19" s="7">
-        <v>132485</v>
+        <v>69404</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2873,10 +3068,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="N19" s="7">
-        <v>192866</v>
+        <v>98302</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2894,10 +3089,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>459</v>
+        <v>272</v>
       </c>
       <c r="D20" s="7">
-        <v>442085</v>
+        <v>263685</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2909,10 +3104,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>533</v>
+        <v>297</v>
       </c>
       <c r="I20" s="7">
-        <v>544357</v>
+        <v>273530</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2924,10 +3119,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>992</v>
+        <v>569</v>
       </c>
       <c r="N20" s="7">
-        <v>986442</v>
+        <v>537215</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2945,10 +3140,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2960,10 +3155,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2975,10 +3170,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2992,55 +3187,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="D22" s="7">
-        <v>161025</v>
+        <v>31483</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>367</v>
+        <v>54</v>
       </c>
       <c r="I22" s="7">
-        <v>376807</v>
+        <v>63081</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>530</v>
+        <v>87</v>
       </c>
       <c r="N22" s="7">
-        <v>537832</v>
+        <v>94565</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,49 +3244,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3051</v>
+        <v>187</v>
       </c>
       <c r="D23" s="7">
-        <v>3115519</v>
+        <v>178400</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>2930</v>
+        <v>236</v>
       </c>
       <c r="I23" s="7">
-        <v>3002391</v>
+        <v>270827</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>5981</v>
+        <v>423</v>
       </c>
       <c r="N23" s="7">
-        <v>6117908</v>
+        <v>449226</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,63 +3295,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>163</v>
+      </c>
+      <c r="D25" s="7">
+        <v>161025</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>367</v>
+      </c>
+      <c r="I25" s="7">
+        <v>376807</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>530</v>
+      </c>
+      <c r="N25" s="7">
+        <v>537832</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3051</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3115518</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2930</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3002390</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5981</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6117909</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3169,8 +3520,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137B13E2-A974-4FF1-A7AD-2C0E8B077AD3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAC761F-43E9-4767-BDE9-AE4C6D954DDA}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3186,7 +3537,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3293,13 +3644,13 @@
         <v>6378</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3308,13 +3659,13 @@
         <v>12476</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -3323,13 +3674,13 @@
         <v>18854</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3695,13 @@
         <v>447768</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>409</v>
@@ -3359,13 +3710,13 @@
         <v>417754</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>848</v>
@@ -3374,13 +3725,13 @@
         <v>865522</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3799,13 @@
         <v>26873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -3463,13 +3814,13 @@
         <v>33102</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -3478,13 +3829,13 @@
         <v>59975</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3850,13 @@
         <v>660214</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>541</v>
@@ -3514,13 +3865,13 @@
         <v>577153</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>1185</v>
@@ -3529,13 +3880,13 @@
         <v>1237367</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3954,13 @@
         <v>38767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -3618,13 +3969,13 @@
         <v>84020</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -3633,13 +3984,13 @@
         <v>122786</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +4005,13 @@
         <v>643096</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>587</v>
@@ -3669,13 +4020,13 @@
         <v>626830</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>1204</v>
@@ -3684,13 +4035,13 @@
         <v>1269926</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +4109,13 @@
         <v>40795</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>94</v>
@@ -3773,13 +4124,13 @@
         <v>104251</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>131</v>
@@ -3788,13 +4139,13 @@
         <v>145046</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +4160,13 @@
         <v>573822</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>445</v>
@@ -3824,13 +4175,13 @@
         <v>511948</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>956</v>
@@ -3839,13 +4190,13 @@
         <v>1085770</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +4264,13 @@
         <v>45096</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -3928,13 +4279,13 @@
         <v>104774</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -3943,13 +4294,13 @@
         <v>149870</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +4315,13 @@
         <v>384333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>307</v>
@@ -3979,13 +4330,13 @@
         <v>343026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>658</v>
@@ -3994,13 +4345,13 @@
         <v>727359</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,49 +4413,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>69771</v>
+        <v>33672</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="H19" s="7">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="I19" s="7">
-        <v>216204</v>
+        <v>90787</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="M19" s="7">
-        <v>261</v>
+        <v>119</v>
       </c>
       <c r="N19" s="7">
-        <v>285976</v>
+        <v>124459</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,49 +4464,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>445</v>
+        <v>253</v>
       </c>
       <c r="D20" s="7">
-        <v>489866</v>
+        <v>276114</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>239</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
-        <v>492</v>
+        <v>254</v>
       </c>
       <c r="I20" s="7">
-        <v>526771</v>
+        <v>263209</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
-        <v>937</v>
+        <v>507</v>
       </c>
       <c r="N20" s="7">
-        <v>1016636</v>
+        <v>539323</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,10 +4515,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4179,10 +4530,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4194,10 +4545,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4211,55 +4562,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7">
-        <v>227680</v>
+        <v>36099</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
-        <v>517</v>
+        <v>112</v>
       </c>
       <c r="I22" s="7">
-        <v>554826</v>
+        <v>125417</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
-        <v>719</v>
+        <v>142</v>
       </c>
       <c r="N22" s="7">
-        <v>782506</v>
+        <v>161517</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,49 +4619,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3007</v>
+        <v>192</v>
       </c>
       <c r="D23" s="7">
-        <v>3199099</v>
+        <v>213752</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
-        <v>2781</v>
+        <v>238</v>
       </c>
       <c r="I23" s="7">
-        <v>3003483</v>
+        <v>263562</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
-        <v>5788</v>
+        <v>430</v>
       </c>
       <c r="N23" s="7">
-        <v>6202582</v>
+        <v>477313</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>192</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,63 +4670,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>202</v>
+      </c>
+      <c r="D25" s="7">
+        <v>227680</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H25" s="7">
+        <v>517</v>
+      </c>
+      <c r="I25" s="7">
+        <v>554826</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M25" s="7">
+        <v>719</v>
+      </c>
+      <c r="N25" s="7">
+        <v>782506</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3007</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3199099</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2781</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3003483</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5788</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6202582</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4388,8 +4895,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B6E3F3-8A83-47AA-9D85-1E6704ED9CEB}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580816A9-DB40-462A-B21A-36DA13BE13C7}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4405,7 +4912,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +5019,13 @@
         <v>4494</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4527,13 +5034,13 @@
         <v>12076</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4542,13 +5049,13 @@
         <v>16570</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +5070,13 @@
         <v>414969</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>392</v>
@@ -4578,13 +5085,13 @@
         <v>383679</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>781</v>
@@ -4593,13 +5100,13 @@
         <v>798648</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +5174,13 @@
         <v>13882</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4682,13 +5189,13 @@
         <v>20196</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -4697,13 +5204,13 @@
         <v>34079</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +5225,13 @@
         <v>576614</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>558</v>
@@ -4733,13 +5240,13 @@
         <v>543348</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="M8" s="7">
         <v>1111</v>
@@ -4748,10 +5255,10 @@
         <v>1119961</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>27</v>
@@ -4822,13 +5329,13 @@
         <v>34459</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -4837,13 +5344,13 @@
         <v>59870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>94</v>
@@ -4852,13 +5359,13 @@
         <v>94329</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +5380,13 @@
         <v>634638</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="H11" s="7">
         <v>603</v>
@@ -4888,13 +5395,13 @@
         <v>601516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="M11" s="7">
         <v>1209</v>
@@ -4903,13 +5410,13 @@
         <v>1236154</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +5484,13 @@
         <v>44931</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="H13" s="7">
         <v>91</v>
@@ -4992,13 +5499,13 @@
         <v>99114</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -5007,13 +5514,13 @@
         <v>144045</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5535,13 @@
         <v>601117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="H14" s="7">
         <v>511</v>
@@ -5043,13 +5550,13 @@
         <v>549963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="M14" s="7">
         <v>1051</v>
@@ -5058,13 +5565,13 @@
         <v>1151080</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5639,13 @@
         <v>42714</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="H16" s="7">
         <v>116</v>
@@ -5147,13 +5654,13 @@
         <v>130425</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>153</v>
@@ -5162,13 +5669,13 @@
         <v>173139</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5690,13 @@
         <v>435204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>317</v>
@@ -5198,13 +5705,13 @@
         <v>366424</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>704</v>
@@ -5213,13 +5720,13 @@
         <v>801628</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,49 +5788,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D19" s="7">
-        <v>72218</v>
+        <v>34344</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="I19" s="7">
-        <v>216650</v>
+        <v>112501</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>351</v>
+        <v>271</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
-        <v>261</v>
+        <v>139</v>
       </c>
       <c r="N19" s="7">
-        <v>288867</v>
+        <v>146845</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,49 +5839,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>550</v>
+        <v>291</v>
       </c>
       <c r="D20" s="7">
-        <v>519110</v>
+        <v>299986</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
-        <v>471</v>
+        <v>249</v>
       </c>
       <c r="I20" s="7">
-        <v>561281</v>
+        <v>265261</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
-        <v>1021</v>
+        <v>540</v>
       </c>
       <c r="N20" s="7">
-        <v>1080392</v>
+        <v>565247</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,10 +5890,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5398,10 +5905,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5413,10 +5920,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5430,55 +5937,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="D22" s="7">
-        <v>212698</v>
+        <v>37873</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="H22" s="7">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="I22" s="7">
-        <v>538331</v>
+        <v>104149</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>133</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7">
-        <v>692</v>
+        <v>122</v>
       </c>
       <c r="N22" s="7">
-        <v>751029</v>
+        <v>142022</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,49 +5994,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3025</v>
+        <v>259</v>
       </c>
       <c r="D23" s="7">
-        <v>3181652</v>
+        <v>219125</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>374</v>
+        <v>155</v>
       </c>
       <c r="H23" s="7">
-        <v>2852</v>
+        <v>222</v>
       </c>
       <c r="I23" s="7">
-        <v>3006211</v>
+        <v>296020</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>377</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>5877</v>
+        <v>481</v>
       </c>
       <c r="N23" s="7">
-        <v>6187863</v>
+        <v>515145</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,63 +6045,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>206</v>
+      </c>
+      <c r="D25" s="7">
+        <v>212698</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H25" s="7">
+        <v>486</v>
+      </c>
+      <c r="I25" s="7">
+        <v>538331</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M25" s="7">
+        <v>692</v>
+      </c>
+      <c r="N25" s="7">
+        <v>751029</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3025</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3181652</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2852</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3006211</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5877</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6187863</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5607,8 +6270,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD4F8BF-78F1-4CA4-8206-1791CD5256C1}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27418FF7-F3B6-49CA-BE99-2C23FC48FC06}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5624,7 +6287,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5728,46 +6391,46 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>4845</v>
+        <v>5326</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>382</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>16898</v>
+        <v>14276</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>40</v>
+        <v>431</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>432</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>21743</v>
+        <v>19602</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>435</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,46 +6442,46 @@
         <v>169</v>
       </c>
       <c r="D5" s="7">
-        <v>372834</v>
+        <v>394661</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>388</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="H5" s="7">
         <v>200</v>
       </c>
       <c r="I5" s="7">
-        <v>338059</v>
+        <v>298924</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>48</v>
+        <v>439</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>278</v>
+        <v>441</v>
       </c>
       <c r="M5" s="7">
         <v>369</v>
       </c>
       <c r="N5" s="7">
-        <v>710893</v>
+        <v>693585</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,7 +6493,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5845,7 +6508,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5860,7 +6523,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5883,46 +6546,46 @@
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>8533</v>
+        <v>8433</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>23702</v>
+        <v>21093</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>32235</v>
+        <v>29526</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,46 +6597,46 @@
         <v>294</v>
       </c>
       <c r="D8" s="7">
-        <v>419863</v>
+        <v>415114</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
       </c>
       <c r="I8" s="7">
-        <v>475513</v>
+        <v>491000</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="M8" s="7">
         <v>736</v>
       </c>
       <c r="N8" s="7">
-        <v>895376</v>
+        <v>906114</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,7 +6648,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6000,7 +6663,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6015,7 +6678,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6038,46 +6701,46 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>31915</v>
+        <v>30546</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>412</v>
+        <v>283</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
       </c>
       <c r="I10" s="7">
-        <v>56320</v>
+        <v>52485</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>399</v>
+        <v>464</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
       </c>
       <c r="N10" s="7">
-        <v>88235</v>
+        <v>83030</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,46 +6752,46 @@
         <v>519</v>
       </c>
       <c r="D11" s="7">
-        <v>525337</v>
+        <v>505792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>420</v>
+        <v>291</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="H11" s="7">
         <v>768</v>
       </c>
       <c r="I11" s="7">
-        <v>554127</v>
+        <v>539517</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>407</v>
+        <v>473</v>
       </c>
       <c r="M11" s="7">
         <v>1287</v>
       </c>
       <c r="N11" s="7">
-        <v>1079464</v>
+        <v>1045310</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,7 +6803,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6155,7 +6818,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6170,7 +6833,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6193,46 +6856,46 @@
         <v>58</v>
       </c>
       <c r="D13" s="7">
-        <v>63937</v>
+        <v>60521</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="H13" s="7">
         <v>165</v>
       </c>
       <c r="I13" s="7">
-        <v>115915</v>
+        <v>105388</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="M13" s="7">
         <v>223</v>
       </c>
       <c r="N13" s="7">
-        <v>179852</v>
+        <v>165909</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,46 +6907,46 @@
         <v>607</v>
       </c>
       <c r="D14" s="7">
-        <v>660053</v>
+        <v>827265</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="H14" s="7">
         <v>976</v>
       </c>
       <c r="I14" s="7">
-        <v>631346</v>
+        <v>607493</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="M14" s="7">
         <v>1583</v>
       </c>
       <c r="N14" s="7">
-        <v>1291400</v>
+        <v>1434758</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,7 +6958,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6310,7 +6973,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6325,7 +6988,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6348,46 +7011,46 @@
         <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>72597</v>
+        <v>67729</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="H16" s="7">
         <v>249</v>
       </c>
       <c r="I16" s="7">
-        <v>150613</v>
+        <v>137397</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="M16" s="7">
         <v>328</v>
       </c>
       <c r="N16" s="7">
-        <v>223210</v>
+        <v>205127</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,46 +7062,46 @@
         <v>584</v>
       </c>
       <c r="D17" s="7">
-        <v>527560</v>
+        <v>493505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="H17" s="7">
         <v>753</v>
       </c>
       <c r="I17" s="7">
-        <v>446450</v>
+        <v>410508</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="M17" s="7">
         <v>1337</v>
       </c>
       <c r="N17" s="7">
-        <v>974010</v>
+        <v>904012</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,7 +7113,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6465,7 +7128,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6480,7 +7143,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6500,49 +7163,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="D19" s="7">
-        <v>118583</v>
+        <v>45109</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>465</v>
+        <v>514</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="H19" s="7">
-        <v>556</v>
+        <v>231</v>
       </c>
       <c r="I19" s="7">
-        <v>302966</v>
+        <v>113038</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>468</v>
+        <v>336</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
       <c r="M19" s="7">
-        <v>739</v>
+        <v>302</v>
       </c>
       <c r="N19" s="7">
-        <v>421549</v>
+        <v>158148</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,49 +7214,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>845</v>
+        <v>499</v>
       </c>
       <c r="D20" s="7">
-        <v>579171</v>
+        <v>323056</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>475</v>
+        <v>523</v>
       </c>
       <c r="H20" s="7">
-        <v>1152</v>
+        <v>596</v>
       </c>
       <c r="I20" s="7">
-        <v>723671</v>
+        <v>495330</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>344</v>
       </c>
       <c r="M20" s="7">
-        <v>1997</v>
+        <v>1095</v>
       </c>
       <c r="N20" s="7">
-        <v>1302843</v>
+        <v>818385</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>526</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>480</v>
+        <v>527</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>481</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,10 +7265,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6617,10 +7280,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6632,10 +7295,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6649,55 +7312,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>358</v>
+        <v>112</v>
       </c>
       <c r="D22" s="7">
-        <v>300411</v>
+        <v>64938</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>529</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>483</v>
+        <v>530</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
       <c r="H22" s="7">
-        <v>1076</v>
+        <v>325</v>
       </c>
       <c r="I22" s="7">
-        <v>666414</v>
+        <v>158365</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>532</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>533</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
       <c r="M22" s="7">
-        <v>1434</v>
+        <v>437</v>
       </c>
       <c r="N22" s="7">
-        <v>966825</v>
+        <v>223303</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>535</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>536</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,49 +7369,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3018</v>
+        <v>346</v>
       </c>
       <c r="D23" s="7">
-        <v>3084817</v>
+        <v>217821</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>491</v>
+        <v>538</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>540</v>
       </c>
       <c r="H23" s="7">
-        <v>4291</v>
+        <v>556</v>
       </c>
       <c r="I23" s="7">
-        <v>3169167</v>
+        <v>267466</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>541</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>542</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>543</v>
       </c>
       <c r="M23" s="7">
-        <v>7309</v>
+        <v>902</v>
       </c>
       <c r="N23" s="7">
-        <v>6253984</v>
+        <v>485287</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>544</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,63 +7420,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>358</v>
+      </c>
+      <c r="D25" s="7">
+        <v>282602</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1076</v>
+      </c>
+      <c r="I25" s="7">
+        <v>602042</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1434</v>
+      </c>
+      <c r="N25" s="7">
+        <v>884644</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3018</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3177215</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4291</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3110238</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7309</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6287453</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
